--- a/teaching/traditional_assets/database/data/canada/canada_utility_water.xlsx
+++ b/teaching/traditional_assets/database/data/canada/canada_utility_water.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.7184999999999999</v>
+        <v>0.3595</v>
       </c>
       <c r="G2">
-        <v>-0.477755905511811</v>
+        <v>-0.2790594498669033</v>
       </c>
       <c r="H2">
-        <v>-0.5393700787401575</v>
+        <v>-0.3395740905057675</v>
       </c>
       <c r="I2">
-        <v>-0.4754046820267734</v>
+        <v>-0.30198308286848</v>
       </c>
       <c r="J2">
-        <v>-0.4754046820267734</v>
+        <v>-0.30198308286848</v>
       </c>
       <c r="K2">
-        <v>-11.37</v>
+        <v>-10.796</v>
       </c>
       <c r="L2">
-        <v>-1.119094488188976</v>
+        <v>-0.957941437444543</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.432</v>
+        <v>0.444</v>
       </c>
       <c r="V2">
-        <v>0.1018867924528302</v>
+        <v>0.05317365269461078</v>
       </c>
       <c r="W2">
-        <v>-0.3177457677457677</v>
+        <v>0.3377926421404682</v>
       </c>
       <c r="X2">
-        <v>0.7087639694583031</v>
+        <v>0.03987323512985918</v>
       </c>
       <c r="Y2">
-        <v>-1.026509737204071</v>
+        <v>0.297919407010609</v>
       </c>
       <c r="Z2">
-        <v>2.202682402497337</v>
+        <v>3.967266747889714</v>
       </c>
       <c r="AA2">
-        <v>-1.141938958238029</v>
+        <v>-0.9331478807856484</v>
       </c>
       <c r="AB2">
-        <v>0.05835426778128039</v>
+        <v>0.03773951083202913</v>
       </c>
       <c r="AC2">
-        <v>-1.200293226019309</v>
+        <v>-1.032089913638213</v>
       </c>
       <c r="AD2">
-        <v>37.378</v>
+        <v>43.631</v>
       </c>
       <c r="AE2">
-        <v>1.54055784696009</v>
+        <v>0.4267467196388474</v>
       </c>
       <c r="AF2">
-        <v>38.91855784696009</v>
+        <v>44.05774671963885</v>
       </c>
       <c r="AG2">
-        <v>38.48655784696009</v>
+        <v>43.61374671963885</v>
       </c>
       <c r="AH2">
-        <v>0.9017576070304525</v>
+        <v>0.840672409659792</v>
       </c>
       <c r="AI2">
-        <v>4.3696519481141</v>
+        <v>5.247001986685364</v>
       </c>
       <c r="AJ2">
-        <v>0.9007642971103119</v>
+        <v>0.8393110480456512</v>
       </c>
       <c r="AK2">
-        <v>4.541423699263038</v>
+        <v>5.484111119990435</v>
       </c>
       <c r="AL2">
-        <v>4.33</v>
+        <v>4.986000000000001</v>
       </c>
       <c r="AM2">
-        <v>4.312</v>
+        <v>4.986000000000001</v>
       </c>
       <c r="AN2">
-        <v>-8.50466439135381</v>
+        <v>-21.96928499496475</v>
       </c>
       <c r="AO2">
-        <v>-1.132332563510393</v>
+        <v>-0.6955475330926594</v>
       </c>
       <c r="AP2">
-        <v>-8.756895983381135</v>
+        <v>-21.96059754261774</v>
       </c>
       <c r="AQ2">
-        <v>-1.137059369202226</v>
+        <v>-0.6955475330926594</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +710,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clearford Water Systems Inc. (TSXV:CLI)</t>
+          <t>Current Water Technologies Inc. (TSXV:WATR)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.711</v>
+        <v>0.311</v>
       </c>
       <c r="G3">
-        <v>-0.3670975323149236</v>
+        <v>0.04485981308411215</v>
       </c>
       <c r="H3">
-        <v>-0.4406580493537016</v>
+        <v>0.04485981308411215</v>
       </c>
       <c r="I3">
-        <v>-0.4540363222055439</v>
+        <v>-0.1822429906542056</v>
       </c>
       <c r="J3">
-        <v>-0.4540363222055439</v>
+        <v>-0.1822429906542056</v>
       </c>
       <c r="K3">
-        <v>-8.58</v>
+        <v>-0.209</v>
       </c>
       <c r="L3">
-        <v>-1.008225616921269</v>
+        <v>-0.1953271028037383</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.354</v>
+        <v>0.093</v>
       </c>
       <c r="V3">
-        <v>0.4538461538461538</v>
+        <v>0.03369565217391304</v>
       </c>
       <c r="W3">
-        <v>0.3864864864864865</v>
+        <v>0.9858490566037735</v>
       </c>
       <c r="X3">
-        <v>1.357919982659761</v>
+        <v>0.03987323512985918</v>
       </c>
       <c r="Y3">
-        <v>-0.9714334961732742</v>
+        <v>0.9459758214739143</v>
       </c>
       <c r="Z3">
-        <v>2.205094228467424</v>
+        <v>-9.553571428571429</v>
       </c>
       <c r="AA3">
-        <v>-1.00119287361002</v>
+        <v>1.741071428571429</v>
       </c>
       <c r="AB3">
-        <v>0.05444193941916356</v>
+        <v>0.03773951083202913</v>
       </c>
       <c r="AC3">
-        <v>-1.055634813029184</v>
+        <v>1.7033319177394</v>
       </c>
       <c r="AD3">
-        <v>37.2</v>
+        <v>0.375</v>
       </c>
       <c r="AE3">
-        <v>1.149245509845891</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>38.34924550984589</v>
+        <v>0.375</v>
       </c>
       <c r="AG3">
-        <v>37.99524550984589</v>
+        <v>0.282</v>
       </c>
       <c r="AH3">
-        <v>0.9800660608238988</v>
+        <v>0.1196172248803828</v>
       </c>
       <c r="AI3">
-        <v>4.485687709597332</v>
+        <v>0.8445945945945946</v>
       </c>
       <c r="AJ3">
-        <v>0.9798840732084613</v>
+        <v>0.09270216962524656</v>
       </c>
       <c r="AK3">
-        <v>4.636254699654553</v>
+        <v>0.8034188034188035</v>
       </c>
       <c r="AL3">
-        <v>4.33</v>
+        <v>0.014</v>
       </c>
       <c r="AM3">
-        <v>4.312</v>
+        <v>0.014</v>
       </c>
       <c r="AN3">
-        <v>-10.46707934721441</v>
+        <v>-3.232758620689655</v>
       </c>
       <c r="AO3">
-        <v>-0.9030023094688222</v>
+        <v>-13.92857142857143</v>
       </c>
       <c r="AP3">
-        <v>-10.6908400421626</v>
+        <v>-2.431034482758621</v>
       </c>
       <c r="AQ3">
-        <v>-0.9067717996289425</v>
+        <v>-13.92857142857143</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +838,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Current Water Technologies Inc. (TSXV:WATR)</t>
+          <t>Clearford Water Systems Inc. (TSXV:CLI)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.726</v>
+        <v>0.408</v>
       </c>
       <c r="G4">
-        <v>-1.048484848484849</v>
+        <v>-0.2782352941176471</v>
       </c>
       <c r="H4">
-        <v>-1.048484848484849</v>
+        <v>-0.3450980392156863</v>
       </c>
       <c r="I4">
-        <v>-0.5856136166199029</v>
+        <v>-0.2701322886203695</v>
       </c>
       <c r="J4">
-        <v>-0.5856136166199029</v>
+        <v>-0.2701322886203695</v>
       </c>
       <c r="K4">
-        <v>-2.79</v>
+        <v>-10.1</v>
       </c>
       <c r="L4">
-        <v>-1.690909090909091</v>
+        <v>-0.9901960784313726</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -889,67 +889,162 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.078</v>
+        <v>0.314</v>
       </c>
       <c r="V4">
-        <v>0.02254335260115607</v>
+        <v>0.19625</v>
       </c>
       <c r="W4">
-        <v>-1.021978021978022</v>
+        <v>0.3377926421404682</v>
       </c>
       <c r="X4">
-        <v>0.05960795625684548</v>
+        <v>0.590352852827162</v>
       </c>
       <c r="Y4">
-        <v>-1.081585978234867</v>
+        <v>-0.2525602106866938</v>
       </c>
       <c r="Z4">
-        <v>2.190326533507799</v>
+        <v>3.454410746495573</v>
       </c>
       <c r="AA4">
-        <v>-1.282685042866037</v>
+        <v>-0.9331478807856484</v>
       </c>
       <c r="AB4">
-        <v>0.06226659614339722</v>
+        <v>0.09894203285256425</v>
       </c>
       <c r="AC4">
-        <v>-1.344951639009434</v>
+        <v>-1.032089913638213</v>
       </c>
       <c r="AD4">
-        <v>0.178</v>
+        <v>42.9</v>
       </c>
       <c r="AE4">
-        <v>0.3913123371141985</v>
+        <v>0.4267467196388474</v>
       </c>
       <c r="AF4">
-        <v>0.5693123371141986</v>
+        <v>43.32674671963885</v>
       </c>
       <c r="AG4">
-        <v>0.4913123371141986</v>
+        <v>43.01274671963885</v>
       </c>
       <c r="AH4">
-        <v>0.1412926796143933</v>
+        <v>0.9643864709371313</v>
       </c>
       <c r="AI4">
-        <v>1.593318444339759</v>
+        <v>9.166293285744171</v>
       </c>
       <c r="AJ4">
-        <v>0.1243415592585181</v>
+        <v>0.9641358105553346</v>
       </c>
       <c r="AK4">
-        <v>1.759006931775171</v>
+        <v>9.747386254509335</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>4.94</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>4.94</v>
       </c>
       <c r="AN4">
-        <v>-0.2116527942925089</v>
+        <v>-22.94117647058823</v>
+      </c>
+      <c r="AO4">
+        <v>-0.5708502024291497</v>
       </c>
       <c r="AP4">
-        <v>-0.584200163037097</v>
+        <v>-23.00146883403147</v>
+      </c>
+      <c r="AQ4">
+        <v>-0.5708502024291497</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dominion Water Reserves Corp. (CNSX:DWR)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Utility (Water)</t>
+        </is>
+      </c>
+      <c r="K5">
+        <v>-0.487</v>
+      </c>
+      <c r="M5">
+        <v>-0</v>
+      </c>
+      <c r="N5">
+        <v>-0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>-0</v>
+      </c>
+      <c r="Q5">
+        <v>-0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0.037</v>
+      </c>
+      <c r="V5">
+        <v>0.009273182957393484</v>
+      </c>
+      <c r="X5">
+        <v>0.03892020017367438</v>
+      </c>
+      <c r="AB5">
+        <v>0.03753708363850915</v>
+      </c>
+      <c r="AD5">
+        <v>0.356</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0.356</v>
+      </c>
+      <c r="AG5">
+        <v>0.319</v>
+      </c>
+      <c r="AH5">
+        <v>0.08191440404970086</v>
+      </c>
+      <c r="AI5">
+        <v>0.1103533787972722</v>
+      </c>
+      <c r="AJ5">
+        <v>0.07403109770248317</v>
+      </c>
+      <c r="AK5">
+        <v>0.1000313577924114</v>
+      </c>
+      <c r="AL5">
+        <v>0.032</v>
+      </c>
+      <c r="AM5">
+        <v>0.032</v>
+      </c>
+      <c r="AO5">
+        <v>-14.15625</v>
+      </c>
+      <c r="AQ5">
+        <v>-14.15625</v>
       </c>
     </row>
   </sheetData>
